--- a/codeBookTOSEM2023-0384R1.xlsx
+++ b/codeBookTOSEM2023-0384R1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valen\Documents\semestre20242\codebook\EnviarTOSEM2daVersion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E161726-8C36-464F-BCDD-593CCBA99C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D29A811-0521-4199-A17A-D248225C3D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{D318CC1E-4320-4D93-B13A-2A94ACBEF5C9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{D318CC1E-4320-4D93-B13A-2A94ACBEF5C9}"/>
   </bookViews>
   <sheets>
     <sheet name="OverarchingThemes" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="766">
   <si>
     <t>Theme</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>Models for understanding sustainability in SE</t>
-  </si>
-  <si>
-    <t>Sub-theme</t>
   </si>
   <si>
     <t>Models adopted from other disciplines</t>
@@ -4475,98 +4472,94 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0099705-FC68-4096-85F4-766E3BC25332}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="53" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="53" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.36328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58">
+    <row r="2" spans="1:3" ht="58">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="87">
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58">
+      <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="58">
-      <c r="B4" s="4" t="s">
+    <row r="5" spans="1:3" ht="43.5">
+      <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29">
+      <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29">
       <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.5">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.5">
-      <c r="B7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4600,159 +4593,159 @@
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72.5">
       <c r="A2" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58">
       <c r="A3" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.5">
       <c r="A5" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87">
       <c r="A6" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5">
       <c r="A7" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="29">
       <c r="A8" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5">
       <c r="A9" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5">
       <c r="A11" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="43.5">
       <c r="A12" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5">
       <c r="A13" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="58">
       <c r="A14" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -4834,73 +4827,73 @@
         <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5">
       <c r="A2" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58">
       <c r="A3" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="43.5">
       <c r="A4" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5">
       <c r="A5" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="87">
       <c r="A6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="101.5">
       <c r="A7" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4963,7 +4956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB5F4BC-5F57-4755-A6F8-28C7CBD4CA6E}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B178" sqref="B178"/>
     </sheetView>
@@ -5010,7 +5003,7 @@
         <v>27</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="87">
@@ -5035,7 +5028,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>33</v>
@@ -5111,7 +5104,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>33</v>
@@ -5133,20 +5126,20 @@
         <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="16"/>
     </row>
@@ -5155,20 +5148,20 @@
         <v>32</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>100</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="16"/>
     </row>
@@ -5177,64 +5170,64 @@
         <v>36</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="91">
       <c r="A11" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="65">
       <c r="A12" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>111</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="16"/>
     </row>
@@ -5243,10 +5236,10 @@
         <v>40</v>
       </c>
       <c r="B13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>113</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>114</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>52</v>
@@ -5256,227 +5249,227 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="78.5">
       <c r="A14" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="34.5">
       <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="50">
       <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>129</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="30">
       <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>133</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="40">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="D18" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>138</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="30">
       <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="C19" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="28" t="s">
-        <v>142</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="24.5">
       <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="24.5">
       <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="28" t="s">
-        <v>150</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="70">
       <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="D22" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="72.5">
       <c r="A23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="11"/>
     </row>
@@ -5485,16 +5478,16 @@
         <v>28</v>
       </c>
       <c r="B24" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="D24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
         <v>161</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="78">
@@ -5502,167 +5495,167 @@
         <v>36</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="J25" t="s">
         <v>165</v>
-      </c>
-      <c r="J25" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="65.5">
       <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="C26" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="D26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
         <v>169</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J26" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="78.5">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="D27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s">
         <v>172</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.5">
       <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="C28" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="D28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" t="s">
         <v>176</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="156.5">
       <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="C29" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="D29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
         <v>180</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="52.5">
       <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="D30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J30" t="s">
         <v>184</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="78">
       <c r="A31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="D31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" t="s">
         <v>188</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J31" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="98.5">
       <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="D32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" t="s">
         <v>192</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="29">
       <c r="A33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="C33" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="32" t="s">
-        <v>196</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" s="15"/>
       <c r="J33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="150">
       <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="D34" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
@@ -5670,21 +5663,21 @@
       <c r="H34" s="12"/>
       <c r="I34" s="11"/>
       <c r="J34" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="48.5">
       <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>206</v>
-      </c>
       <c r="D35" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
@@ -5692,21 +5685,21 @@
       <c r="H35" s="12"/>
       <c r="I35" s="11"/>
       <c r="J35" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="24.5">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>209</v>
-      </c>
       <c r="D36" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -5714,21 +5707,21 @@
       <c r="H36" s="12"/>
       <c r="I36" s="11"/>
       <c r="J36" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="40">
       <c r="A37" t="s">
+        <v>210</v>
+      </c>
+      <c r="B37" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="C37" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="28" t="s">
-        <v>213</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
@@ -5736,21 +5729,21 @@
       <c r="H37" s="12"/>
       <c r="I37" s="11"/>
       <c r="J37" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="24.5">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>216</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
@@ -5758,21 +5751,21 @@
       <c r="H38" s="12"/>
       <c r="I38" s="11"/>
       <c r="J38" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="60">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B39" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="28" t="s">
-        <v>219</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
@@ -5780,21 +5773,21 @@
       <c r="H39" s="12"/>
       <c r="I39" s="11"/>
       <c r="J39" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="30">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B40" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>222</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="12"/>
@@ -5802,21 +5795,21 @@
       <c r="H40" s="12"/>
       <c r="I40" s="11"/>
       <c r="J40" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="110">
       <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="D41" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>227</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="12"/>
@@ -5824,21 +5817,21 @@
       <c r="H41" s="12"/>
       <c r="I41" s="11"/>
       <c r="J41" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="140">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>230</v>
-      </c>
       <c r="D42" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12"/>
@@ -5846,21 +5839,21 @@
       <c r="H42" s="12"/>
       <c r="I42" s="11"/>
       <c r="J42" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="246.5">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="D43" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>234</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="12"/>
@@ -5868,21 +5861,21 @@
       <c r="H43" s="12"/>
       <c r="I43" s="11"/>
       <c r="J43" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="80">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>237</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="12"/>
@@ -5890,21 +5883,21 @@
       <c r="H44" s="12"/>
       <c r="I44" s="11"/>
       <c r="J44" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="60">
       <c r="A45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="C45" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>241</v>
-      </c>
       <c r="D45" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12"/>
@@ -5912,21 +5905,21 @@
       <c r="H45" s="12"/>
       <c r="I45" s="11"/>
       <c r="J45" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="100">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>244</v>
-      </c>
       <c r="D46" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="12"/>
@@ -5934,21 +5927,21 @@
       <c r="H46" s="12"/>
       <c r="I46" s="11"/>
       <c r="J46" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="30">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="D47" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
@@ -5956,21 +5949,21 @@
       <c r="H47" s="12"/>
       <c r="I47" s="11"/>
       <c r="J47" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="140">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>252</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
@@ -5978,21 +5971,21 @@
       <c r="H48" s="12"/>
       <c r="I48" s="11"/>
       <c r="J48" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="40">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="C49" s="28" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
@@ -6000,21 +5993,21 @@
       <c r="H49" s="12"/>
       <c r="I49" s="11"/>
       <c r="J49" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="60.5">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="28" t="s">
-        <v>257</v>
-      </c>
       <c r="D50" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
@@ -6022,21 +6015,21 @@
       <c r="H50" s="12"/>
       <c r="I50" s="11"/>
       <c r="J50" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="80">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B51" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="C51" s="28" t="s">
-        <v>260</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
@@ -6044,296 +6037,296 @@
       <c r="H51" s="12"/>
       <c r="I51" s="11"/>
       <c r="J51" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="52.5">
       <c r="A52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="D52" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" t="s">
         <v>266</v>
-      </c>
-      <c r="F52" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="39.5">
       <c r="A53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="D53" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="F53" t="s">
         <v>270</v>
-      </c>
-      <c r="F53" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="29">
       <c r="A54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B54" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="D54" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F54" t="s">
         <v>273</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F54" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="26.5">
       <c r="A55" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="C55" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="D55" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="F55" t="s">
         <v>278</v>
-      </c>
-      <c r="F55" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="24">
       <c r="A56" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="C56" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="D56" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F56" t="s">
         <v>282</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F56" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="39.5">
       <c r="A57" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="C57" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="32" t="s">
+      <c r="D57" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" t="s">
         <v>286</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F57" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="65.5">
       <c r="A58" t="s">
+        <v>287</v>
+      </c>
+      <c r="B58" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="C58" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="D58" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="F58" t="s">
         <v>291</v>
-      </c>
-      <c r="F58" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="47">
       <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="C59" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="D59" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F59" t="s">
         <v>295</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F59" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="24">
       <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="C60" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="D60" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" t="s">
         <v>300</v>
-      </c>
-      <c r="F60" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="24">
       <c r="A61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="C61" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F61" t="s">
         <v>303</v>
-      </c>
-      <c r="C61" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F61" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="39.5">
       <c r="A62" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="C62" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" t="s">
         <v>306</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="52.5">
       <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="C63" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F63" t="s">
         <v>309</v>
-      </c>
-      <c r="C63" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F63" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="39.5">
       <c r="A64" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="C64" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F64" t="s">
         <v>312</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F64" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="39.5">
       <c r="A65" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="C65" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F65" t="s">
         <v>315</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F65" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="24">
       <c r="A66" t="s">
+        <v>316</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="C66" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="D66" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="F66" t="s">
         <v>320</v>
-      </c>
-      <c r="F66" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="29">
       <c r="A67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>322</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="C67" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="D67" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="F67" t="s">
         <v>325</v>
-      </c>
-      <c r="F67" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="52.5">
       <c r="A68" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="42" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="C68" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="32" t="s">
+      <c r="D68" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="F68" t="s">
         <v>330</v>
-      </c>
-      <c r="F68" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="35.5">
@@ -6341,221 +6334,221 @@
         <v>40</v>
       </c>
       <c r="B69" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="32" t="s">
+      <c r="D69" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="F69" t="s">
         <v>334</v>
-      </c>
-      <c r="F69" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C70" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="C70" s="32" t="s">
+      <c r="D70" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="F70" t="s">
         <v>339</v>
-      </c>
-      <c r="F70" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="39.5">
       <c r="A71" t="s">
+        <v>340</v>
+      </c>
+      <c r="B71" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="C71" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="C71" s="32" t="s">
+      <c r="D71" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="F71" t="s">
         <v>344</v>
-      </c>
-      <c r="F71" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="39.5">
       <c r="A72" t="s">
+        <v>345</v>
+      </c>
+      <c r="B72" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="B72" s="34" t="s">
+      <c r="C72" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="C72" s="32" t="s">
+      <c r="D72" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="F72" t="s">
         <v>349</v>
-      </c>
-      <c r="F72" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="39.5">
       <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B73" s="34" t="s">
+      <c r="C73" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="D73" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="F73" t="s">
         <v>354</v>
-      </c>
-      <c r="F73" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="39.5">
       <c r="A74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="D74" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="F74" t="s">
         <v>358</v>
-      </c>
-      <c r="F74" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="65.5">
       <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="C75" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="F75" t="s">
         <v>363</v>
-      </c>
-      <c r="F75" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="31.5">
       <c r="A76" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="43" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="C76" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="C76" s="32" t="s">
+      <c r="D76" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F76" t="s">
         <v>367</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F76" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="29">
       <c r="A77" t="s">
+        <v>368</v>
+      </c>
+      <c r="B77" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="C77" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="D77" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F77" t="s">
         <v>371</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F77" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="29">
       <c r="A78" t="s">
+        <v>372</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="C78" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>375</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="70">
       <c r="A79" t="s">
+        <v>376</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="C79" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="C79" s="32" t="s">
-        <v>379</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="29">
       <c r="A80" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B80" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="C80" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="C80" s="32" t="s">
+      <c r="D80" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F80" t="s">
         <v>382</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="F80" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B81" s="37" t="s">
+        <v>383</v>
+      </c>
+      <c r="C81" s="56" t="s">
         <v>384</v>
       </c>
-      <c r="C81" s="56" t="s">
-        <v>385</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -6564,20 +6557,20 @@
     </row>
     <row r="82" spans="1:10" ht="130.5">
       <c r="A82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>389</v>
-      </c>
       <c r="D82" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -6586,20 +6579,20 @@
     </row>
     <row r="83" spans="1:10" ht="29">
       <c r="A83" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>393</v>
-      </c>
       <c r="D83" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -6608,20 +6601,20 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="45" t="s">
         <v>395</v>
       </c>
-      <c r="B84" s="45" t="s">
+      <c r="C84" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>397</v>
-      </c>
       <c r="D84" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -6630,20 +6623,20 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C85" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="C85" s="29" t="s">
-        <v>400</v>
-      </c>
       <c r="D85" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -6652,20 +6645,20 @@
     </row>
     <row r="86" spans="1:10" ht="20">
       <c r="A86" t="s">
+        <v>401</v>
+      </c>
+      <c r="B86" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="B86" s="28" t="s">
+      <c r="C86" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="C86" s="28" t="s">
-        <v>404</v>
-      </c>
       <c r="D86" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -6674,20 +6667,20 @@
     </row>
     <row r="87" spans="1:10" ht="30">
       <c r="A87" t="s">
+        <v>405</v>
+      </c>
+      <c r="B87" s="28" t="s">
         <v>406</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="C87" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="C87" s="28" t="s">
-        <v>408</v>
-      </c>
       <c r="D87" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -6696,20 +6689,20 @@
     </row>
     <row r="88" spans="1:10" ht="20">
       <c r="A88" t="s">
+        <v>409</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="C88" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="D88" s="11" t="s">
         <v>412</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>413</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -6718,20 +6711,20 @@
     </row>
     <row r="89" spans="1:10" ht="20">
       <c r="A89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B89" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C89" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="D89" s="11" t="s">
         <v>416</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>417</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -6740,20 +6733,20 @@
     </row>
     <row r="90" spans="1:10" ht="30">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B90" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="C90" s="28" t="s">
-        <v>420</v>
-      </c>
       <c r="D90" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -6762,20 +6755,20 @@
     </row>
     <row r="91" spans="1:10" ht="140">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="C91" s="29" t="s">
-        <v>423</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -6784,20 +6777,20 @@
     </row>
     <row r="92" spans="1:10" ht="20">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="C92" s="28" t="s">
         <v>425</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>426</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -6806,87 +6799,87 @@
     </row>
     <row r="93" spans="1:10" ht="196">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B93" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="C93" s="56" t="s">
         <v>516</v>
       </c>
-      <c r="C93" s="56" t="s">
+      <c r="D93" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="H93" t="s">
         <v>518</v>
-      </c>
-      <c r="H93" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="130.5">
       <c r="A94" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B94" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="C94" s="32" t="s">
         <v>520</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="D94" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="H94" t="s">
         <v>522</v>
-      </c>
-      <c r="H94" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="92">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B95" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="C95" s="56" t="s">
         <v>524</v>
       </c>
-      <c r="C95" s="56" t="s">
+      <c r="D95" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="H95" t="s">
         <v>525</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="H95" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="104.5">
       <c r="A96" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="C96" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="D96" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H96" t="s">
         <v>490</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H96" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="78.5">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B97" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="C97" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="C97" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H97" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="143.5">
@@ -6894,674 +6887,674 @@
         <v>40</v>
       </c>
       <c r="B98" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C98" s="32" t="s">
         <v>496</v>
       </c>
-      <c r="C98" s="32" t="s">
+      <c r="D98" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="H98" t="s">
         <v>497</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H98" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="70.5" thickBot="1">
       <c r="A99" t="s">
+        <v>376</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>378</v>
-      </c>
       <c r="C99" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="117">
       <c r="A100" t="s">
+        <v>500</v>
+      </c>
+      <c r="B100" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="C100" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="C100" s="32" t="s">
-        <v>503</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="15"/>
       <c r="H100" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="65.5">
       <c r="A101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C101" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="C101" s="32" t="s">
-        <v>506</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F101" s="15"/>
       <c r="H101" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="325.5">
       <c r="A102" t="s">
+        <v>507</v>
+      </c>
+      <c r="B102" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="B102" s="32" t="s">
+      <c r="C102" s="32" t="s">
         <v>509</v>
       </c>
-      <c r="C102" s="32" t="s">
-        <v>510</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" s="15"/>
       <c r="H102" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="117.5">
       <c r="A103" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B103" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="C103" s="32" t="s">
-        <v>514</v>
-      </c>
       <c r="D103" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F103" s="60"/>
       <c r="H103" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="50">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B104" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="C104" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="C104" s="28" t="s">
-        <v>528</v>
-      </c>
       <c r="D104" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="61"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" ht="60">
       <c r="A105" t="s">
+        <v>529</v>
+      </c>
+      <c r="B105" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="C105" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="C105" s="11" t="s">
-        <v>532</v>
-      </c>
       <c r="D105" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="61"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="188.5">
       <c r="A106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>535</v>
-      </c>
       <c r="D106" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="140">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B107" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="C107" s="28" t="s">
         <v>593</v>
       </c>
-      <c r="C107" s="28" t="s">
-        <v>594</v>
-      </c>
       <c r="D107" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I107" s="11"/>
       <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="60">
       <c r="A108" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B108" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="C108" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="C108" s="28" t="s">
-        <v>538</v>
-      </c>
       <c r="D108" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="200">
       <c r="A109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="28" t="s">
+        <v>589</v>
+      </c>
+      <c r="C109" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="C109" s="28" t="s">
-        <v>591</v>
-      </c>
       <c r="D109" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="170">
       <c r="A110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B110" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="C110" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="C110" s="28" t="s">
-        <v>541</v>
-      </c>
       <c r="D110" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="90.5">
       <c r="A111" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C111" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="C111" s="29" t="s">
-        <v>544</v>
-      </c>
       <c r="D111" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" ht="216.5">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B112" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="C112" s="11" t="s">
-        <v>547</v>
-      </c>
       <c r="D112" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" ht="30">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="C113" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="C113" s="28" t="s">
-        <v>550</v>
-      </c>
       <c r="D113" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:10" ht="60.5">
       <c r="A114" t="s">
+        <v>551</v>
+      </c>
+      <c r="B114" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="C114" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="C114" s="11" t="s">
-        <v>554</v>
-      </c>
       <c r="D114" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:10" ht="24.5">
       <c r="A115" t="s">
+        <v>555</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="C115" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C115" s="11" t="s">
-        <v>558</v>
-      </c>
       <c r="D115" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I115" s="12"/>
       <c r="J115" s="12"/>
     </row>
     <row r="116" spans="1:10" ht="60.5">
       <c r="A116" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B116" s="48" t="s">
+        <v>559</v>
+      </c>
+      <c r="C116" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="C116" s="48" t="s">
-        <v>561</v>
-      </c>
       <c r="D116" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" ht="72.5">
       <c r="A117" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B117" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C117" s="11" t="s">
-        <v>564</v>
-      </c>
       <c r="D117" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I117" s="11"/>
       <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" ht="72.5">
       <c r="A118" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B118" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="C118" s="11" t="s">
-        <v>567</v>
-      </c>
       <c r="D118" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" ht="24.5">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B119" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="C119" s="11" t="s">
-        <v>570</v>
-      </c>
       <c r="D119" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="57.5">
       <c r="A120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B120" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="C120" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="C120" s="49" t="s">
-        <v>573</v>
-      </c>
       <c r="D120" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" ht="57.5">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C121" s="49" t="s">
         <v>575</v>
       </c>
-      <c r="C121" s="49" t="s">
-        <v>576</v>
-      </c>
       <c r="D121" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="115">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C122" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="C122" s="49" t="s">
-        <v>579</v>
-      </c>
       <c r="D122" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" ht="103.5">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="C123" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="C123" s="27" t="s">
-        <v>582</v>
-      </c>
       <c r="D123" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="70">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B124" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="C124" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="C124" s="28" t="s">
-        <v>585</v>
-      </c>
       <c r="D124" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="31"/>
       <c r="H124" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" ht="20">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B125" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="C125" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="C125" s="28" t="s">
-        <v>588</v>
-      </c>
       <c r="D125" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:10" ht="125">
       <c r="A126" t="s">
+        <v>595</v>
+      </c>
+      <c r="B126" s="34" t="s">
         <v>596</v>
       </c>
-      <c r="B126" s="34" t="s">
+      <c r="C126" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="C126" s="32" t="s">
+      <c r="D126" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="G126" t="s">
         <v>599</v>
-      </c>
-      <c r="G126" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="52.5">
       <c r="A127" t="s">
+        <v>600</v>
+      </c>
+      <c r="B127" s="50" t="s">
         <v>601</v>
       </c>
-      <c r="B127" s="50" t="s">
+      <c r="C127" s="32" t="s">
         <v>602</v>
       </c>
-      <c r="C127" s="32" t="s">
+      <c r="D127" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G127" t="s">
         <v>603</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="G127" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="65.5">
       <c r="A128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C128" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="G128" t="s">
         <v>605</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="G128" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="46">
       <c r="A129" t="s">
+        <v>606</v>
+      </c>
+      <c r="B129" s="36" t="s">
         <v>607</v>
       </c>
-      <c r="B129" s="36" t="s">
+      <c r="C129" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="D129" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="G129" t="s">
         <v>610</v>
-      </c>
-      <c r="G129" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="140.5">
       <c r="A130" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B130" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C130" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="C130" s="32" t="s">
+      <c r="D130" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G130" t="s">
         <v>613</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="G130" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="138">
@@ -7569,120 +7562,120 @@
         <v>32</v>
       </c>
       <c r="B131" s="36" t="s">
+        <v>614</v>
+      </c>
+      <c r="C131" s="32" t="s">
         <v>615</v>
       </c>
-      <c r="C131" s="32" t="s">
+      <c r="D131" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G131" t="s">
         <v>616</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G131" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="169.5">
       <c r="A132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B132" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="C132" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="C132" s="32" t="s">
+      <c r="D132" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G132" t="s">
         <v>619</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G132" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="182.5">
       <c r="A133" t="s">
+        <v>620</v>
+      </c>
+      <c r="B133" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="C133" s="32" t="s">
         <v>622</v>
       </c>
-      <c r="C133" s="32" t="s">
+      <c r="D133" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G133" t="s">
         <v>623</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G133" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="52.5">
       <c r="A134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B134" s="32" t="s">
+        <v>624</v>
+      </c>
+      <c r="C134" s="32" t="s">
         <v>625</v>
       </c>
-      <c r="C134" s="32" t="s">
+      <c r="D134" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G134" t="s">
         <v>626</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G134" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="169.5">
       <c r="A135" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="C135" s="32" t="s">
         <v>628</v>
       </c>
-      <c r="C135" s="32" t="s">
+      <c r="D135" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G135" t="s">
         <v>629</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G135" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="65.5">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B136" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="C136" s="32" t="s">
         <v>631</v>
       </c>
-      <c r="C136" s="32" t="s">
+      <c r="D136" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G136" t="s">
         <v>632</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="G136" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="58">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>636</v>
-      </c>
       <c r="D137" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
@@ -7690,21 +7683,21 @@
     </row>
     <row r="138" spans="1:10" ht="130.5">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B138" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>639</v>
-      </c>
       <c r="D138" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
@@ -7712,21 +7705,21 @@
     </row>
     <row r="139" spans="1:10" ht="43.5">
       <c r="A139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>642</v>
-      </c>
       <c r="D139" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11"/>
       <c r="G139" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
@@ -7734,55 +7727,55 @@
     </row>
     <row r="140" spans="1:10" ht="182.5">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="D140" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G140" t="s">
         <v>660</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G140" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="182">
       <c r="A141" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B141" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C141" s="32" t="s">
         <v>662</v>
       </c>
-      <c r="C141" s="32" t="s">
+      <c r="D141" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G141" t="s">
         <v>663</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G141" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="174">
       <c r="A142" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="D142" s="11" t="s">
         <v>649</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>650</v>
       </c>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
       <c r="G142" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
@@ -7790,21 +7783,21 @@
     </row>
     <row r="143" spans="1:10" ht="156.5">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="C143" s="11" t="s">
-        <v>653</v>
-      </c>
       <c r="D143" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E143" s="11"/>
       <c r="F143" s="11"/>
       <c r="G143" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -7812,21 +7805,21 @@
     </row>
     <row r="144" spans="1:10" ht="144.5">
       <c r="A144" t="s">
+        <v>761</v>
+      </c>
+      <c r="B144" s="28" t="s">
         <v>762</v>
       </c>
-      <c r="B144" s="28" t="s">
+      <c r="C144" s="28" t="s">
         <v>763</v>
       </c>
-      <c r="C144" s="28" t="s">
+      <c r="D144" s="11" t="s">
         <v>764</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>765</v>
       </c>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
@@ -7834,21 +7827,21 @@
     </row>
     <row r="145" spans="1:10" ht="72.5">
       <c r="A145" t="s">
+        <v>654</v>
+      </c>
+      <c r="B145" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="C145" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="C145" s="11" t="s">
-        <v>657</v>
-      </c>
       <c r="D145" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E145" s="11"/>
       <c r="F145" s="11"/>
       <c r="G145" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
@@ -7856,89 +7849,89 @@
     </row>
     <row r="146" spans="1:10" ht="78">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B146" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="C146" s="32" t="s">
         <v>665</v>
       </c>
-      <c r="C146" s="32" t="s">
+      <c r="D146" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G146" t="s">
         <v>666</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G146" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="78">
       <c r="A147" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B147" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>668</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="D147" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G147" t="s">
         <v>669</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G147" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="104.5">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B148" s="32" t="s">
+        <v>670</v>
+      </c>
+      <c r="C148" s="32" t="s">
         <v>671</v>
       </c>
-      <c r="C148" s="32" t="s">
+      <c r="D148" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G148" t="s">
         <v>672</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G148" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="26.5">
       <c r="A149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B149" s="32" t="s">
+        <v>673</v>
+      </c>
+      <c r="C149" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="C149" s="32" t="s">
+      <c r="D149" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G149" t="s">
         <v>675</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="G149" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="30">
       <c r="A150" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C150" s="29" t="s">
         <v>644</v>
       </c>
-      <c r="C150" s="29" t="s">
+      <c r="D150" s="11" t="s">
         <v>645</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>646</v>
       </c>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -7946,156 +7939,156 @@
     </row>
     <row r="151" spans="1:10" ht="117.5">
       <c r="A151" t="s">
+        <v>676</v>
+      </c>
+      <c r="B151" s="32" t="s">
         <v>677</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="C151" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="C151" s="32" t="s">
+      <c r="D151" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G151" t="s">
         <v>679</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="G151" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="94.5">
       <c r="A152" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B152" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="C152" s="32" t="s">
         <v>681</v>
       </c>
-      <c r="C152" s="32" t="s">
+      <c r="D152" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="G152" t="s">
         <v>682</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="G152" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="130.5">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B153" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="C153" s="32" t="s">
         <v>684</v>
       </c>
-      <c r="C153" s="32" t="s">
-        <v>685</v>
-      </c>
       <c r="D153" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F153" s="15"/>
       <c r="G153" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="78.5">
       <c r="A154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D154" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G154" t="s">
         <v>494</v>
-      </c>
-      <c r="G154" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="91.5">
       <c r="A155" t="s">
+        <v>687</v>
+      </c>
+      <c r="B155" s="32" t="s">
         <v>688</v>
       </c>
-      <c r="B155" s="32" t="s">
+      <c r="C155" s="32" t="s">
         <v>689</v>
       </c>
-      <c r="C155" s="32" t="s">
+      <c r="D155" s="57" t="s">
         <v>690</v>
       </c>
-      <c r="D155" s="57" t="s">
+      <c r="G155" t="s">
         <v>691</v>
-      </c>
-      <c r="G155" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="91.5">
       <c r="A156" t="s">
+        <v>692</v>
+      </c>
+      <c r="B156" s="32" t="s">
         <v>693</v>
       </c>
-      <c r="B156" s="32" t="s">
+      <c r="C156" s="32" t="s">
         <v>694</v>
       </c>
-      <c r="C156" s="32" t="s">
+      <c r="D156" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G156" t="s">
         <v>695</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G156" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="52.5">
       <c r="A157" t="s">
+        <v>696</v>
+      </c>
+      <c r="B157" s="32" t="s">
         <v>697</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="C157" s="32" t="s">
         <v>698</v>
       </c>
-      <c r="C157" s="32" t="s">
+      <c r="D157" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G157" t="s">
         <v>699</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G157" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="104">
       <c r="A158" t="s">
+        <v>700</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="C158" s="32" t="s">
         <v>702</v>
       </c>
-      <c r="C158" s="32" t="s">
+      <c r="D158" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G158" t="s">
         <v>703</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G158" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="78.5">
       <c r="A159" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B159" s="32" t="s">
+        <v>704</v>
+      </c>
+      <c r="C159" s="32" t="s">
         <v>705</v>
       </c>
-      <c r="C159" s="32" t="s">
+      <c r="D159" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="G159" t="s">
         <v>706</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="G159" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="91">
@@ -8103,35 +8096,35 @@
         <v>32</v>
       </c>
       <c r="B160" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C160" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="C160" s="58" t="s">
+      <c r="D160" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G160" t="s">
         <v>713</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G160" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="319">
       <c r="A161" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B161" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="D161" s="11" t="s">
         <v>709</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>710</v>
       </c>
       <c r="E161" s="11"/>
       <c r="F161" s="11"/>
       <c r="G161" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
@@ -8139,55 +8132,55 @@
     </row>
     <row r="162" spans="1:10" ht="131.5">
       <c r="A162" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162" s="51" t="s">
+        <v>714</v>
+      </c>
+      <c r="C162" s="32" t="s">
         <v>715</v>
       </c>
-      <c r="C162" s="32" t="s">
+      <c r="D162" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G162" t="s">
         <v>716</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="G162" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="260">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C163" s="32" t="s">
         <v>718</v>
       </c>
-      <c r="C163" s="32" t="s">
+      <c r="D163" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G163" t="s">
         <v>719</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G163" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="90">
       <c r="A164" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B164" s="28" t="s">
+        <v>720</v>
+      </c>
+      <c r="C164" s="28" t="s">
         <v>721</v>
       </c>
-      <c r="C164" s="28" t="s">
-        <v>722</v>
-      </c>
       <c r="D164" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
@@ -8195,21 +8188,21 @@
     </row>
     <row r="165" spans="1:10" ht="80">
       <c r="A165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B165" s="28" t="s">
+        <v>723</v>
+      </c>
+      <c r="C165" s="28" t="s">
         <v>724</v>
       </c>
-      <c r="C165" s="28" t="s">
-        <v>725</v>
-      </c>
       <c r="D165" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
@@ -8217,21 +8210,21 @@
     </row>
     <row r="166" spans="1:10" ht="200">
       <c r="A166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
       <c r="G166" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H166" s="12"/>
       <c r="I166" s="11"/>
@@ -8242,16 +8235,16 @@
         <v>32</v>
       </c>
       <c r="B167" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="D167" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G167" t="s">
         <v>729</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G167" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="27" thickBot="1">
@@ -8259,137 +8252,137 @@
         <v>32</v>
       </c>
       <c r="B168" s="55" t="s">
+        <v>758</v>
+      </c>
+      <c r="C168" s="32" t="s">
         <v>759</v>
       </c>
-      <c r="C168" s="32" t="s">
+      <c r="D168" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F168" t="s">
         <v>760</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F168" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="52.5">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="C169" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="C169" s="32" t="s">
+      <c r="D169" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G169" t="s">
         <v>732</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G169" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="78.5">
       <c r="A170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B170" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="C170" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="C170" s="32" t="s">
+      <c r="D170" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G170" t="s">
         <v>735</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G170" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="130">
       <c r="A171" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C171" s="32" t="s">
         <v>737</v>
       </c>
-      <c r="C171" s="32" t="s">
+      <c r="D171" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G171" t="s">
         <v>738</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G171" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="91">
       <c r="A172" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B172" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C172" s="32" t="s">
         <v>740</v>
       </c>
-      <c r="C172" s="32" t="s">
+      <c r="D172" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G172" t="s">
         <v>741</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G172" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="117">
       <c r="A173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B173" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G173" t="s">
         <v>499</v>
-      </c>
-      <c r="C173" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G173" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="221.5">
       <c r="A174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B174" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C174" s="32" t="s">
         <v>744</v>
       </c>
-      <c r="C174" s="32" t="s">
+      <c r="D174" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="G174" t="s">
         <v>745</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="G174" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="43.5">
       <c r="A175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B175" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>748</v>
-      </c>
       <c r="D175" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E175" s="11"/>
       <c r="F175" s="11"/>
       <c r="G175" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -8397,21 +8390,21 @@
     </row>
     <row r="176" spans="1:10" ht="205" thickBot="1">
       <c r="A176" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B176" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C176" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="C176" s="11" t="s">
-        <v>751</v>
-      </c>
       <c r="D176" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
       <c r="G176" s="31" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -8419,21 +8412,21 @@
     </row>
     <row r="177" spans="1:10" ht="100.5" thickBot="1">
       <c r="A177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B177" s="52" t="s">
+        <v>752</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="C177" s="11" t="s">
-        <v>754</v>
-      </c>
       <c r="D177" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E177" s="11"/>
       <c r="F177" s="11"/>
       <c r="G177" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -8441,21 +8434,21 @@
     </row>
     <row r="178" spans="1:10" ht="110">
       <c r="A178" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C178" s="29" t="s">
         <v>756</v>
       </c>
-      <c r="C178" s="29" t="s">
-        <v>757</v>
-      </c>
       <c r="D178" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
       <c r="G178" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
